--- a/staking_rise_resultados.xlsx
+++ b/staking_rise_resultados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
   <si>
     <t xml:space="preserve">Mês</t>
   </si>
@@ -46,70 +46,61 @@
     <t xml:space="preserve">Destaques</t>
   </si>
   <si>
-    <t xml:space="preserve">Agosto</t>
+    <t xml:space="preserve">Setembro</t>
   </si>
   <si>
     <t xml:space="preserve">21:40</t>
   </si>
   <si>
-    <t xml:space="preserve">Aracaju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-0</t>
+    <t xml:space="preserve">Ignite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derrota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genezzis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-1</t>
   </si>
   <si>
     <t xml:space="preserve">Vitoria</t>
   </si>
   <si>
-    <t xml:space="preserve">Jehfinho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Barca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lokomotiva</t>
+    <t xml:space="preserve">Motta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend </t>
   </si>
   <si>
     <t xml:space="preserve">1-0</t>
   </si>
   <si>
-    <t xml:space="preserve">Pipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real City</t>
-  </si>
-  <si>
     <t xml:space="preserve">23:40</t>
   </si>
   <si>
-    <t xml:space="preserve">Playmaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derrota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alquimistas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King</t>
+    <t xml:space="preserve">Brotherhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zanesco</t>
   </si>
   <si>
     <t xml:space="preserve">00:10</t>
@@ -123,7 +114,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +144,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,7 +218,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,7 +421,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -478,12 +475,10 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -496,20 +491,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -522,19 +515,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,20 +541,18 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -583,9 +574,11 @@
         <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -600,15 +593,7 @@
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
@@ -621,20 +606,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -647,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -662,7 +637,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -682,7 +657,7 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="n">
@@ -692,12 +667,12 @@
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="n">
@@ -712,7 +687,7 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1" t="n">
@@ -722,12 +697,12 @@
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="n">
@@ -737,12 +712,12 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="1" t="n">
@@ -752,12 +727,12 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="n">
@@ -772,7 +747,7 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="1" t="n">
@@ -782,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G18" s="3"/>
     </row>
@@ -812,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="3"/>
     </row>
@@ -827,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" s="3"/>
     </row>
@@ -842,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -872,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -887,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -902,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -927,37 +902,37 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
